--- a/data/trans_dic/IP7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP7_R-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>1,86%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,33%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,97</t>
+          <t>1,88; 5,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,07</t>
+          <t>0,83; 3,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,92</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,63</t>
+          <t>1,03; 5,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,05</t>
+          <t>0,3; 2,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,09</t>
+          <t>0,65; 3,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,61</t>
+          <t>0,25; 2,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,46</t>
+          <t>0,84; 4,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,84</t>
+          <t>1,39; 3,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,03</t>
+          <t>1,04; 3,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,93</t>
+          <t>0,26; 1,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,98</t>
+          <t>1,33; 4,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,97</t>
+          <t>2,19; 5,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,77</t>
+          <t>1,6; 5,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>1,24; 4,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,38</t>
+          <t>0,91; 3,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,5</t>
+          <t>1,52; 5,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,83</t>
+          <t>1,04; 4,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,52</t>
+          <t>0,81; 3,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,59</t>
+          <t>2,0; 6,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,81</t>
+          <t>2,34; 4,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,27</t>
+          <t>1,68; 4,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,56</t>
+          <t>1,43; 3,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,15</t>
+          <t>1,67; 3,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP7_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,51</t>
+          <t>0,55; 4,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,4</t>
+          <t>1,73; 6,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,14</t>
+          <t>1,59; 7,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,5</t>
+          <t>2,3; 13,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,33</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,46</t>
+          <t>1,3; 6,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,7</t>
+          <t>0,51; 4,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,19</t>
+          <t>0,0; 6,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,26</t>
+          <t>0,68; 3,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,2</t>
+          <t>1,95; 5,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,63</t>
+          <t>1,46; 4,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,62</t>
+          <t>2,12; 8,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,97</t>
+          <t>2,04; 5,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,77</t>
+          <t>0,24; 2,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>0,25; 2,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,38</t>
+          <t>0,55; 3,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,5</t>
+          <t>0,25; 2,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,83</t>
+          <t>0,92; 4,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,52</t>
+          <t>0,98; 4,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,59</t>
+          <t>0,49; 4,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,81</t>
+          <t>1,19; 3,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,27</t>
+          <t>0,67; 2,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,56</t>
+          <t>0,79; 2,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,15</t>
+          <t>0,77; 3,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,97</t>
+          <t>3,21; 9,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,07</t>
+          <t>1,32; 6,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,92</t>
+          <t>1,01; 5,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,63</t>
+          <t>1,1; 5,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,05</t>
+          <t>0,52; 5,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,09</t>
+          <t>0,85; 5,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,61</t>
+          <t>0,45; 3,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,46</t>
+          <t>1,35; 6,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,84</t>
+          <t>2,26; 6,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,03</t>
+          <t>1,33; 4,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,93</t>
+          <t>0,95; 3,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,98</t>
+          <t>1,64; 4,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,9</t>
+          <t>1,5; 5,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,56</t>
+          <t>1,95; 6,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,12</t>
+          <t>0,78; 4,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,47</t>
+          <t>0,69; 3,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,74</t>
+          <t>1,4; 5,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,49</t>
+          <t>0,77; 4,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,97</t>
+          <t>0,77; 4,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,27</t>
+          <t>1,36; 7,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,4</t>
+          <t>1,84; 4,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,16</t>
+          <t>1,64; 4,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,62</t>
+          <t>1,12; 4,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,42</t>
+          <t>1,42; 4,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 4,68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 3,69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 3,08</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 3,56</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 2,72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 3,43</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 2,92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 4,55</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 3,4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 3,2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 2,76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 3,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP7_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,98</t>
+          <t>0,54; 5,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,61</t>
+          <t>1,38; 6,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,38</t>
+          <t>1,52; 7,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 13,07</t>
+          <t>2,42; 12,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,61</t>
+          <t>1,36; 6,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,23</t>
+          <t>0,44; 4,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,92</t>
+          <t>0,0; 7,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,32</t>
+          <t>0,69; 3,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,55</t>
+          <t>1,97; 5,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,74</t>
+          <t>1,45; 4,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,11</t>
+          <t>1,85; 8,45</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,96</t>
+          <t>1,92; 5,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,04</t>
+          <t>0,24; 2,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,38</t>
+          <t>0,25; 2,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,77</t>
+          <t>0,54; 3,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,11</t>
+          <t>0,25; 2,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,18</t>
+          <t>0,85; 4,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,79</t>
+          <t>0,93; 4,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,21</t>
+          <t>0,37; 4,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,26</t>
+          <t>1,29; 3,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,52</t>
+          <t>0,66; 2,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,83</t>
+          <t>0,8; 2,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,2</t>
+          <t>0,81; 3,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,41</t>
+          <t>3,15; 8,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,11</t>
+          <t>1,32; 5,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,31</t>
+          <t>1,07; 5,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,54</t>
+          <t>1,04; 5,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,08</t>
+          <t>0,54; 4,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,05</t>
+          <t>0,84; 4,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,91</t>
+          <t>0,34; 3,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,35</t>
+          <t>1,63; 6,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,03</t>
+          <t>2,34; 6,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,58</t>
+          <t>1,37; 4,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,32</t>
+          <t>1,01; 3,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,84</t>
+          <t>1,67; 5,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,27</t>
+          <t>1,35; 5,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,7</t>
+          <t>1,94; 6,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,96</t>
+          <t>0,74; 4,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,63</t>
+          <t>0,72; 3,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,51</t>
+          <t>1,34; 5,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,65</t>
+          <t>0,76; 4,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,45</t>
+          <t>0,67; 4,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,11</t>
+          <t>1,22; 6,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,64</t>
+          <t>1,81; 4,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,74</t>
+          <t>1,8; 4,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,12</t>
+          <t>1,04; 4,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,28</t>
+          <t>1,39; 4,45</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,68</t>
+          <t>2,53; 4,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,69</t>
+          <t>1,7; 3,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,08</t>
+          <t>1,38; 3,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,56</t>
+          <t>1,52; 3,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,72</t>
+          <t>1,05; 2,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,43</t>
+          <t>1,48; 3,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,92</t>
+          <t>1,24; 2,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,55</t>
+          <t>1,72; 4,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,4</t>
+          <t>2,03; 3,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,2</t>
+          <t>1,88; 3,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,76</t>
+          <t>1,46; 2,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,46</t>
+          <t>1,85; 3,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP7_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,19%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>3,52%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>3,68%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,61%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,44</t>
+          <t>0,0; 3,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,51</t>
+          <t>1,42; 6,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,3</t>
+          <t>0,44; 4,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 12,57</t>
+          <t>0,0; 8,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,57; 5,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,39</t>
+          <t>1,73; 7,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,2</t>
+          <t>1,54; 7,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,72</t>
+          <t>3,03; 15,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,45</t>
+          <t>0,59; 3,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,46</t>
+          <t>2,01; 5,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,67</t>
+          <t>1,42; 4,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 8,45</t>
+          <t>2,27; 9,6</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>3,49%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,75%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,99%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,78%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,86</t>
+          <t>0,25; 2,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,94; 4,25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 4,74</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 4,76</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 5,83</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,24; 2,05</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 2,54</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 3,88</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 2,12</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 4,17</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,73</t>
+          <t>0,25; 2,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,08</t>
+          <t>0,69; 4,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,4</t>
+          <t>1,3; 3,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,38</t>
+          <t>0,68; 2,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,63</t>
+          <t>0,83; 2,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,32</t>
+          <t>0,82; 3,52</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>5,6%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>3,08%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>2,44%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,12%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,46%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,85</t>
+          <t>0,58; 4,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,83</t>
+          <t>0,84; 5,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,22</t>
+          <t>0,34; 3,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,53</t>
+          <t>1,74; 6,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,94</t>
+          <t>3,14; 9,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,85</t>
+          <t>1,41; 5,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,85</t>
+          <t>1,03; 5,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,44</t>
+          <t>1,09; 5,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,28</t>
+          <t>2,41; 6,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,4</t>
+          <t>1,48; 4,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,72</t>
+          <t>0,98; 3,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,02</t>
+          <t>1,67; 4,84</t>
         </is>
       </c>
     </row>
@@ -1076,49 +1076,49 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>2,94%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>3,74%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>2,21%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>2,99%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,99%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
           <t>2,92%</t>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,24</t>
+          <t>1,65; 5,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,44</t>
+          <t>0,76; 4,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,9</t>
+          <t>0,73; 4,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,53</t>
+          <t>1,4; 11,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,43</t>
+          <t>1,32; 5,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,57</t>
+          <t>1,84; 7,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,7</t>
+          <t>0,75; 4,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 6,49</t>
+          <t>0,71; 3,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,6</t>
+          <t>1,81; 4,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,85</t>
+          <t>1,72; 4,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,0</t>
+          <t>1,09; 3,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,45</t>
+          <t>1,44; 6,77</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>3,53%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>2,5%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>2,09%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,34%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,72</t>
+          <t>1,01; 2,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,59</t>
+          <t>1,53; 3,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,21</t>
+          <t>1,21; 2,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,62</t>
+          <t>1,84; 6,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,59</t>
+          <t>2,57; 4,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,31</t>
+          <t>1,67; 3,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,87</t>
+          <t>1,29; 3,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,44</t>
+          <t>1,53; 3,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,39</t>
+          <t>2,04; 3,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,28</t>
+          <t>1,85; 3,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,64</t>
+          <t>1,49; 2,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,46</t>
+          <t>2,03; 4,29</t>
         </is>
       </c>
     </row>
